--- a/src/test/resources/testfiles/upload/Country_Account_Master.xlsx
+++ b/src/test/resources/testfiles/upload/Country_Account_Master.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\Desktop\New folder (9)\Bulk upload optimization\500 Line Item For IM PD\For pricing database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE0E84-6D25-4EE8-A52F-4548D8C8A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7051CFD5-5764-4B6E-98DB-F7C8B41B552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category Master" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Account</t>
   </si>
@@ -85,6 +81,54 @@
   </si>
   <si>
     <t>Account KK-009</t>
+  </si>
+  <si>
+    <t>Country KK-010</t>
+  </si>
+  <si>
+    <t>Country KK-011</t>
+  </si>
+  <si>
+    <t>Country KK-012</t>
+  </si>
+  <si>
+    <t>Country KK-013</t>
+  </si>
+  <si>
+    <t>Country KK-014</t>
+  </si>
+  <si>
+    <t>Country KK-015</t>
+  </si>
+  <si>
+    <t>Country KK-016</t>
+  </si>
+  <si>
+    <t>Country KK-017</t>
+  </si>
+  <si>
+    <t>Account KK-010</t>
+  </si>
+  <si>
+    <t>Account KK-011</t>
+  </si>
+  <si>
+    <t>Account KK-012</t>
+  </si>
+  <si>
+    <t>Account KK-013</t>
+  </si>
+  <si>
+    <t>Account KK-014</t>
+  </si>
+  <si>
+    <t>Account KK-015</t>
+  </si>
+  <si>
+    <t>Account KK-016</t>
+  </si>
+  <si>
+    <t>Account KK-017</t>
   </si>
 </sst>
 </file>
@@ -430,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B501"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +566,70 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
